--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201202_DLKimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201202_DLKimLong.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>IC Nguồn 3V3</t>
-  </si>
-  <si>
-    <t>VT_Module_M-9129</t>
-  </si>
-  <si>
-    <t>Module GPS</t>
   </si>
   <si>
     <t>ĐC: Số 02 Phố Thanh Lâm, P Minh Khai, Q Bắc Từ Liêm, Hà Nội</t>
@@ -761,6 +755,30 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,30 +844,6 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1236,94 +1230,94 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="E3" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+      <c r="E4" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="E5" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="68" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1331,10 +1325,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1345,13 +1339,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -1359,10 +1353,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1374,10 +1368,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -1461,16 +1455,16 @@
         <v>23</v>
       </c>
       <c r="C14" s="49">
-        <v>867330022231305</v>
-      </c>
-      <c r="D14" s="49" t="s">
+        <v>867330024348644</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>20</v>
@@ -1479,69 +1473,49 @@
         <v>1</v>
       </c>
       <c r="I14" s="46">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="J14" s="46">
-        <v>310000</v>
+        <v>10000</v>
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
-        <v>3</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="49">
-        <v>867330024348644</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="46">
-        <v>1</v>
-      </c>
-      <c r="I15" s="46">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="46">
-        <v>10000</v>
+    <row r="15" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="48">
+        <f>SUM(J13:J14)</f>
+        <v>40000</v>
       </c>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="48">
-        <f>SUM(J13:J15)</f>
-        <v>350000</v>
-      </c>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -1550,49 +1524,49 @@
       <c r="J17" s="33"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="36"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="36"/>
+      <c r="A19" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -1601,7 +1575,9 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="37"/>
@@ -1614,9 +1590,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="F22" s="37"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="37"/>
@@ -1636,55 +1610,45 @@
       <c r="J23" s="38"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
+      <c r="F26" s="4"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E28" s="4"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -1734,20 +1698,10 @@
     </row>
     <row r="44" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA45" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B18:D19"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1759,6 +1713,13 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B17:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="baohanh@vn-et.com"/>
